--- a/examples/sources/data/unsolved/to_schedule/2019-03-06.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-06.xlsx
@@ -3277,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="2">
         <v>43530</v>
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" s="2">
         <v>43530</v>
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="2">
         <v>43530</v>
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="2">
         <v>43530</v>
